--- a/docs/_build/html/_downloads/7b0c5d4158e30a6e40f89b0ad9d7576a/Raw material documentation - supplementary material.xlsx
+++ b/docs/_build/html/_downloads/7b0c5d4158e30a6e40f89b0ad9d7576a/Raw material documentation - supplementary material.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubordeauxfr.sharepoint.com/sites/ConflictArticle/Documents partages/General/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akoyamparamb\Documents\GitHub\geopolrisk-py\docs\_static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="689" documentId="13_ncr:1_{427B5D80-C2D7-4534-ABA0-9AC8B7461583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46897FCD-2E4E-4F2D-B908-6841CB79DF1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCD409B-4864-4F2F-8917-6BAD4395C463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="3540" windowWidth="21600" windowHeight="11295" xr2:uid="{1A78CD8B-9BC6-4AE4-B3A3-BBEFFF9AD782}"/>
+    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{1A78CD8B-9BC6-4AE4-B3A3-BBEFFF9AD782}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -865,9 +865,6 @@
     <t>Pt</t>
   </si>
   <si>
-    <t>711019;711290;711510</t>
-  </si>
-  <si>
     <t>Platinum, unwrought or in semi-manufactured forms or in powder form</t>
   </si>
   <si>
@@ -1454,6 +1451,9 @@
   </si>
   <si>
     <t xml:space="preserve">261100 corresponds to Tungsten in its ore or concentrate form before being processed into metal and early stage of supply chain. Major producing countries use this code to classify and report their ore exports and importers also recognise this code for customs and trade purposes and also used in international databases to track the flow of tungsten ores. While 810110 corresponds to articles thereof, including waste and scrap, powders which are post-processed forms rather than the raw ore. The production data corresponds to the production of primary tungsten ores and concentrates, and hence trade data that matches the production is considered under this HS code 261100. However, because of the transition from ore processed tungsten often occurs in different regions or countries and the availability can vary based on the geological and industrial capabilities, Including both the codes ensures better monitoring of the raw material availability, international trade patterns and supply risk assessments. </t>
+  </si>
+  <si>
+    <t>711019;711510</t>
   </si>
 </sst>
 </file>
@@ -2281,35 +2281,73 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2365,68 +2403,26 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2815,7 +2811,7 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -2825,394 +2821,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="38" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="11" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="39" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="13" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="39" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="14" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="39" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="14" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="39" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="14" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="40" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="27" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
     </row>
     <row r="15" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="41" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="9" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="5" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
     </row>
     <row r="20" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="8" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="3" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:C21"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="H20:O20"/>
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -3227,17 +3224,16 @@
     <mergeCell ref="H12:O12"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="A15:C21"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3250,8 +3246,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,1190 +3261,1171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="D2">
+        <v>250310</v>
+      </c>
+      <c r="E2" s="4">
+        <v>250390</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>250410</v>
+      </c>
+      <c r="E3" s="4">
+        <v>250490</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="43">
-        <v>250310</v>
-      </c>
-      <c r="E2" s="44">
-        <v>250390</v>
-      </c>
-      <c r="F2" s="43" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>250700</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>250810</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6">
+        <v>251020</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>251110</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>251200</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9">
+        <v>251910</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>252010</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>252400</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>252890</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>252910</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>252922</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15">
+        <v>260111</v>
+      </c>
+      <c r="E15" s="4">
+        <v>260112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>260200</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>260300</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18">
+        <v>260400</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>260600</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20">
+        <v>260700</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21">
+        <v>260800</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22">
+        <v>260900</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>261000</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24">
+        <v>261100</v>
+      </c>
+      <c r="E24" s="4">
+        <v>810110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25">
+        <v>261210</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26">
+        <v>261390</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27">
+        <v>261400</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28">
+        <v>261510</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29">
+        <v>261610</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30">
+        <v>261690</v>
+      </c>
+      <c r="E30" s="4">
+        <v>710812</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>261710</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>270112</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33">
+        <v>270119</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34">
+        <v>270210</v>
+      </c>
+      <c r="E34" s="4">
+        <v>270220</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>270900</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36">
+        <v>271111</v>
+      </c>
+      <c r="E36" s="4">
+        <v>271121</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37">
+        <v>280450</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38">
+        <v>280480</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39">
+        <v>280490</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40">
+        <v>280540</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41">
+        <v>282200</v>
+      </c>
+      <c r="E41" s="4">
+        <v>810510</v>
+      </c>
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42">
+        <v>282520</v>
+      </c>
+      <c r="E42" s="4">
+        <v>283691</v>
+      </c>
+      <c r="F42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43">
+        <v>282530</v>
+      </c>
+      <c r="E43" s="4">
+        <v>720292</v>
+      </c>
+      <c r="F43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44">
+        <v>284690</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <v>710210</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46">
+        <v>710510</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47">
+        <v>711011</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48">
+        <v>711021</v>
+      </c>
+      <c r="E48" s="4">
+        <v>711029</v>
+      </c>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49">
+        <v>711031</v>
+      </c>
+      <c r="E49" s="4">
+        <v>711039</v>
+      </c>
+      <c r="F49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50">
+        <v>720293</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51">
+        <v>760110</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52">
+        <v>810310</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>810600</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54">
+        <v>810710</v>
+      </c>
+      <c r="E54" s="4">
+        <v>283030</v>
+      </c>
+      <c r="F54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55">
+        <v>811211</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56">
+        <v>811230</v>
+      </c>
+      <c r="E56" s="4">
+        <v>282560</v>
+      </c>
+      <c r="F56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="43">
-        <v>250410</v>
-      </c>
-      <c r="E3" s="44">
-        <v>250490</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="43">
-        <v>250700</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="43">
-        <v>250810</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="43">
-        <v>251020</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="43">
-        <v>251110</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="43">
-        <v>251200</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="43">
-        <v>251910</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="43">
-        <v>252010</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="43">
-        <v>252400</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="43">
-        <v>252890</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="43">
-        <v>252910</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="43">
-        <v>252922</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="43">
-        <v>260111</v>
-      </c>
-      <c r="E15" s="44">
-        <v>260112</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="43">
-        <v>260200</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="43">
-        <v>260300</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="43">
-        <v>260400</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="43">
-        <v>260600</v>
-      </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="43">
-        <v>260700</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="43">
-        <v>260800</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="43">
-        <v>260900</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="43">
-        <v>261000</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="43">
-        <v>261100</v>
-      </c>
-      <c r="E24" s="44">
-        <v>810110</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="43">
-        <v>261210</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="43">
-        <v>261390</v>
-      </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="43">
-        <v>261400</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="43">
-        <v>261510</v>
-      </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="43">
-        <v>261610</v>
-      </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="43">
-        <v>261690</v>
-      </c>
-      <c r="E30" s="44">
-        <v>710812</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="43">
-        <v>261710</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="43">
-        <v>270112</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="43">
-        <v>270119</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="43">
-        <v>270210</v>
-      </c>
-      <c r="E34" s="44">
-        <v>270220</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="43">
-        <v>270900</v>
-      </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="43">
-        <v>271111</v>
-      </c>
-      <c r="E36" s="44">
-        <v>271121</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="43">
-        <v>280450</v>
-      </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="43">
-        <v>280480</v>
-      </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="43">
-        <v>280490</v>
-      </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="43">
-        <v>280540</v>
-      </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="43">
-        <v>282200</v>
-      </c>
-      <c r="E41" s="44">
-        <v>810510</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="43">
-        <v>282520</v>
-      </c>
-      <c r="E42" s="44">
-        <v>283691</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="43">
-        <v>282530</v>
-      </c>
-      <c r="E43" s="44">
-        <v>720292</v>
-      </c>
-      <c r="F43" s="43" t="s">
+      <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="43">
-        <v>284690</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43">
-        <v>710210</v>
-      </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="43" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43">
-        <v>710510</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="43" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="43">
-        <v>711011</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="43">
-        <v>711021</v>
-      </c>
-      <c r="E48" s="44">
-        <v>711029</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="43">
-        <v>711031</v>
-      </c>
-      <c r="E49" s="44">
-        <v>711039</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="43">
-        <v>720293</v>
-      </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="43">
-        <v>760110</v>
-      </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="43">
-        <v>810310</v>
-      </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="43">
-        <v>810600</v>
-      </c>
-      <c r="E53" s="44"/>
-      <c r="F53" s="43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="43">
-        <v>810710</v>
-      </c>
-      <c r="E54" s="44">
-        <v>283030</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="43">
-        <v>811211</v>
-      </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="43">
-        <v>811230</v>
-      </c>
-      <c r="E56" s="44">
-        <v>282560</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="43" t="s">
+      <c r="D66" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="44"/>
-      <c r="F57" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="44"/>
-      <c r="F61" s="43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="44"/>
-      <c r="F62" s="43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="44"/>
-      <c r="F63" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="44"/>
-      <c r="F64" s="43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="44"/>
-      <c r="F65" s="43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="44"/>
-      <c r="F66" s="43" t="s">
+      <c r="E66" s="4"/>
+      <c r="F66" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4487,1507 +4464,1500 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="F2" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F3" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.32</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G7" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="43" t="s">
+    <row r="8" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="E8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="48" t="s">
+      <c r="E9" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="44">
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="44">
+      <c r="G15" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="44">
+      <c r="G17" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="G18" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="44">
-        <v>0.32</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="44">
-        <v>0.19</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="43" t="s">
+      <c r="E20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="F9" s="44">
+      <c r="E21" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="G23" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="44">
+      <c r="E24" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="44">
+      <c r="G32" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" t="s">
+        <v>279</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="4">
         <v>0.01</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="G48" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="43" t="s">
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="44">
-        <v>0.21</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="48" t="s">
+      <c r="D57" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="44">
-        <v>0.22</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="44">
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="49" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="G62" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="44">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="E63" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="49" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="44">
-        <v>0</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="F19" s="44">
-        <v>0</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="44">
-        <v>0.04</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="43" t="s">
+      <c r="G64" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="44">
-        <v>0</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="43" t="s">
+      <c r="E65" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="44">
-        <v>0.05</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="F26" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F27" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="44">
-        <v>0.31</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="44">
-        <v>0.31</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="F31" s="44">
-        <v>0.83</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="44">
-        <v>0</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" s="44">
-        <v>0</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="F34" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="F35" s="44">
-        <v>0.09</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36" s="44">
-        <v>0</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F37" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="44">
-        <v>0</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="F39" s="44">
-        <v>0.16</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="F40" s="44">
-        <v>0</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="44">
-        <v>0</v>
-      </c>
-      <c r="G41" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="44">
-        <v>0</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F43" s="44">
+      <c r="E66" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F66" s="4">
         <v>0.12</v>
       </c>
-      <c r="G43" s="49" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="F44" s="44">
-        <v>0.42</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="F45" s="44">
-        <v>0</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F46" s="44">
-        <v>0.12</v>
-      </c>
-      <c r="G46" s="49" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="44">
-        <v>0</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F48" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="F49" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" s="44">
-        <v>0.12</v>
-      </c>
-      <c r="G50" s="49" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="44">
-        <v>0</v>
-      </c>
-      <c r="G51" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F52" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="G52" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="F53" s="44">
-        <v>0.04</v>
-      </c>
-      <c r="G53" s="49" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="44">
-        <v>0</v>
-      </c>
-      <c r="G54" s="49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="F55" s="44">
-        <v>0</v>
-      </c>
-      <c r="G55" s="49" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E56" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="F56" s="44">
-        <v>0.16</v>
-      </c>
-      <c r="G56" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="G57" s="49" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="F58" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="G58" s="49" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="F59" s="44">
-        <v>0.31</v>
-      </c>
-      <c r="G59" s="49" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E60" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="F60" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="G60" s="49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="F61" s="44">
-        <v>0.42</v>
-      </c>
-      <c r="G61" s="49" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="44">
-        <v>0</v>
-      </c>
-      <c r="G62" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="F63" s="44">
-        <v>0.06</v>
-      </c>
-      <c r="G63" s="49" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E64" s="49"/>
-      <c r="F64" s="44">
-        <v>0</v>
-      </c>
-      <c r="G64" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E65" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="F65" s="44">
-        <v>0.34</v>
-      </c>
-      <c r="G65" s="49" t="s">
+      <c r="G66" s="1" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="B66" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="F66" s="44">
-        <v>0.12</v>
-      </c>
-      <c r="G66" s="49" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6057,12 +6027,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7383fe52-1400-44bb-9e78-80aa403e146d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="35a9a2f7-eb29-48b5-8a5d-84e229280c77" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6261,20 +6233,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7383fe52-1400-44bb-9e78-80aa403e146d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="35a9a2f7-eb29-48b5-8a5d-84e229280c77" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949A073A-FDEA-4C9B-990E-046F476ECD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A01450-1F09-438A-9BA4-C41B3BAE980B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7383fe52-1400-44bb-9e78-80aa403e146d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="35a9a2f7-eb29-48b5-8a5d-84e229280c77"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6299,18 +6278,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24A01450-1F09-438A-9BA4-C41B3BAE980B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949A073A-FDEA-4C9B-990E-046F476ECD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7383fe52-1400-44bb-9e78-80aa403e146d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="35a9a2f7-eb29-48b5-8a5d-84e229280c77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>